--- a/BetterNames-v2.1-Clothing.xlsx
+++ b/BetterNames-v2.1-Clothing.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11536" uniqueCount="3021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11560" uniqueCount="3030">
   <si>
     <t>CLOT</t>
   </si>
@@ -9089,6 +9089,33 @@
   </si>
   <si>
     <t>JSON</t>
+  </si>
+  <si>
+    <t>POT_FamilyRing1</t>
+  </si>
+  <si>
+    <t>Erithan Sedno's Ring</t>
+  </si>
+  <si>
+    <t>POT_FamilyRing2</t>
+  </si>
+  <si>
+    <t>Salythyr Sedno's Ring</t>
+  </si>
+  <si>
+    <t>POT_FamilyRing3</t>
+  </si>
+  <si>
+    <t>Nededrisa Sedno's Ring</t>
+  </si>
+  <si>
+    <t>Ring Sedno Erithan's</t>
+  </si>
+  <si>
+    <t>Ring Sedno Nededrisa's</t>
+  </si>
+  <si>
+    <t>Ring Sedno Salythyr's</t>
   </si>
 </sst>
 </file>
@@ -28964,9 +28991,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J864"/>
+  <dimension ref="A1:J867"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A848" workbookViewId="0">
+      <selection activeCell="I865" sqref="I865:I867"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -57487,8 +57516,107 @@
         <v>2996</v>
       </c>
       <c r="J864">
-        <f t="shared" ref="J864" si="15">LEN(I864)</f>
+        <f t="shared" ref="J864:J867" si="15">LEN(I864)</f>
         <v>24</v>
+      </c>
+    </row>
+    <row r="865" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A865" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B865" t="s">
+        <v>3021</v>
+      </c>
+      <c r="C865" t="s">
+        <v>3022</v>
+      </c>
+      <c r="D865">
+        <v>0</v>
+      </c>
+      <c r="E865" t="s">
+        <v>155</v>
+      </c>
+      <c r="F865">
+        <v>0</v>
+      </c>
+      <c r="G865">
+        <v>0</v>
+      </c>
+      <c r="H865">
+        <v>0</v>
+      </c>
+      <c r="I865" t="s">
+        <v>3027</v>
+      </c>
+      <c r="J865">
+        <f t="shared" si="15"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="866" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A866" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B866" t="s">
+        <v>3023</v>
+      </c>
+      <c r="C866" t="s">
+        <v>3024</v>
+      </c>
+      <c r="D866">
+        <v>0</v>
+      </c>
+      <c r="E866" t="s">
+        <v>155</v>
+      </c>
+      <c r="F866">
+        <v>0</v>
+      </c>
+      <c r="G866">
+        <v>0</v>
+      </c>
+      <c r="H866">
+        <v>0</v>
+      </c>
+      <c r="I866" t="s">
+        <v>3029</v>
+      </c>
+      <c r="J866">
+        <f t="shared" si="15"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="867" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A867" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B867" t="s">
+        <v>3025</v>
+      </c>
+      <c r="C867" t="s">
+        <v>3026</v>
+      </c>
+      <c r="D867">
+        <v>0</v>
+      </c>
+      <c r="E867" t="s">
+        <v>155</v>
+      </c>
+      <c r="F867">
+        <v>0</v>
+      </c>
+      <c r="G867">
+        <v>0</v>
+      </c>
+      <c r="H867">
+        <v>0</v>
+      </c>
+      <c r="I867" t="s">
+        <v>3028</v>
+      </c>
+      <c r="J867">
+        <f t="shared" si="15"/>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -57500,9 +57628,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1440"/>
+  <dimension ref="A1:D1443"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1436" workbookViewId="0">
+      <selection activeCell="D1443" sqref="D1443"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -78671,7 +78801,7 @@
         <v>2980</v>
       </c>
       <c r="D1411" t="str">
-        <f t="shared" ref="D1411:D1440" si="22">IF(B1411&lt;&gt;C1411,"{ID="&amp;""""&amp;A1411&amp;""""&amp;", name="&amp;""""&amp;C1411&amp;""""&amp;"},","")</f>
+        <f t="shared" ref="D1411:D1443" si="22">IF(B1411&lt;&gt;C1411,"{ID="&amp;""""&amp;A1411&amp;""""&amp;", name="&amp;""""&amp;C1411&amp;""""&amp;"},","")</f>
         <v>{ID="1embc_c_sk_05", name="Skirt Common Girl"},</v>
       </c>
     </row>
@@ -79108,6 +79238,51 @@
       <c r="D1440" t="str">
         <f t="shared" si="22"/>
         <v>{ID="_DEG_AF05_AmuletQu01", name="Amulet Wulfharth Cottage"},</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1441" t="s">
+        <v>3021</v>
+      </c>
+      <c r="B1441" t="s">
+        <v>3022</v>
+      </c>
+      <c r="C1441" t="s">
+        <v>3027</v>
+      </c>
+      <c r="D1441" t="str">
+        <f t="shared" si="22"/>
+        <v>{ID="POT_FamilyRing1", name="Ring Sedno Erithan's"},</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1442" t="s">
+        <v>3023</v>
+      </c>
+      <c r="B1442" t="s">
+        <v>3024</v>
+      </c>
+      <c r="C1442" t="s">
+        <v>3029</v>
+      </c>
+      <c r="D1442" t="str">
+        <f t="shared" si="22"/>
+        <v>{ID="POT_FamilyRing2", name="Ring Sedno Salythyr's"},</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1443" t="s">
+        <v>3025</v>
+      </c>
+      <c r="B1443" t="s">
+        <v>3026</v>
+      </c>
+      <c r="C1443" t="s">
+        <v>3028</v>
+      </c>
+      <c r="D1443" t="str">
+        <f t="shared" si="22"/>
+        <v>{ID="POT_FamilyRing3", name="Ring Sedno Nededrisa's"},</v>
       </c>
     </row>
   </sheetData>

--- a/BetterNames-v2.1-Clothing.xlsx
+++ b/BetterNames-v2.1-Clothing.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11560" uniqueCount="3030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11584" uniqueCount="3039">
   <si>
     <t>CLOT</t>
   </si>
@@ -9116,6 +9116,33 @@
   </si>
   <si>
     <t>Ring Sedno Salythyr's</t>
+  </si>
+  <si>
+    <t>ABtv_c_FireBarrierAmulet</t>
+  </si>
+  <si>
+    <t>Fire Barrier Amulet</t>
+  </si>
+  <si>
+    <t>Amulet of Fire Barrier</t>
+  </si>
+  <si>
+    <t>ABtv_c_LesserFireShieldRing</t>
+  </si>
+  <si>
+    <t>Lesser Ring of Shielding Flames</t>
+  </si>
+  <si>
+    <t>Ebony Ring of Charisma</t>
+  </si>
+  <si>
+    <t>ABtv_c_EbonyCharismaRing</t>
+  </si>
+  <si>
+    <t>Ring Ebony of Charisma</t>
+  </si>
+  <si>
+    <t>Ring Lesser of Shielding Flames</t>
   </si>
 </sst>
 </file>
@@ -9924,6 +9951,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J577"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9971,7 +9999,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -10037,7 +10065,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -10169,7 +10197,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -10202,7 +10230,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -10235,7 +10263,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -10268,7 +10296,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -10301,7 +10329,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -10334,7 +10362,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -10367,7 +10395,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -10400,7 +10428,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -10433,7 +10461,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -10466,7 +10494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -10499,7 +10527,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -10532,7 +10560,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -10565,7 +10593,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -10598,7 +10626,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -10631,7 +10659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -10664,7 +10692,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -10697,7 +10725,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -10730,7 +10758,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -10763,7 +10791,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -10796,7 +10824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -10829,7 +10857,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -10862,7 +10890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -10895,7 +10923,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -10928,7 +10956,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -10961,7 +10989,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -10994,7 +11022,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -11027,7 +11055,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -11060,7 +11088,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -11093,7 +11121,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -11126,7 +11154,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -11159,7 +11187,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -11192,7 +11220,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -11225,7 +11253,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -11258,7 +11286,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -11291,7 +11319,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -11324,7 +11352,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -11357,7 +11385,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -11390,7 +11418,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -11423,7 +11451,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -11456,7 +11484,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -11489,7 +11517,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -11555,7 +11583,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -11588,7 +11616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -11621,7 +11649,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -11654,7 +11682,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -11687,7 +11715,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -11720,7 +11748,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -11786,7 +11814,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -11885,7 +11913,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -11918,7 +11946,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -11951,7 +11979,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -11984,7 +12012,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -12017,7 +12045,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -12050,7 +12078,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -12083,7 +12111,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -12116,7 +12144,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -12149,7 +12177,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -12182,7 +12210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -12215,7 +12243,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -12248,7 +12276,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -12281,7 +12309,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -12314,7 +12342,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -12347,7 +12375,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -12380,7 +12408,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -12413,7 +12441,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -12446,7 +12474,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -12479,7 +12507,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -12512,7 +12540,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -12545,7 +12573,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -12578,7 +12606,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -12611,7 +12639,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -12644,7 +12672,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -12677,7 +12705,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -12710,7 +12738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -12743,7 +12771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -12776,7 +12804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -12809,7 +12837,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -12875,7 +12903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -12908,7 +12936,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -12974,7 +13002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -13007,7 +13035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -13139,7 +13167,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -13172,7 +13200,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -13205,7 +13233,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -13271,7 +13299,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -13304,7 +13332,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -13337,7 +13365,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -13370,7 +13398,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -13403,7 +13431,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -13535,7 +13563,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -13568,7 +13596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -13601,7 +13629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -13634,7 +13662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -13667,7 +13695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -13700,7 +13728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -13733,7 +13761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -13766,7 +13794,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -13799,7 +13827,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -13832,7 +13860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -13865,7 +13893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>0</v>
       </c>
@@ -13898,7 +13926,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -13931,7 +13959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -13964,7 +13992,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -13997,7 +14025,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>0</v>
       </c>
@@ -14030,7 +14058,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>0</v>
       </c>
@@ -14063,7 +14091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>0</v>
       </c>
@@ -14096,7 +14124,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -14129,7 +14157,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>0</v>
       </c>
@@ -14162,7 +14190,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>0</v>
       </c>
@@ -14195,7 +14223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>0</v>
       </c>
@@ -14228,7 +14256,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -14261,7 +14289,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>0</v>
       </c>
@@ -14294,7 +14322,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -14327,7 +14355,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>0</v>
       </c>
@@ -14360,7 +14388,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>0</v>
       </c>
@@ -14393,7 +14421,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>0</v>
       </c>
@@ -14426,7 +14454,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>0</v>
       </c>
@@ -14459,7 +14487,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>0</v>
       </c>
@@ -14492,7 +14520,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>0</v>
       </c>
@@ -14525,7 +14553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -14558,7 +14586,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>0</v>
       </c>
@@ -15119,7 +15147,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>0</v>
       </c>
@@ -15152,7 +15180,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>0</v>
       </c>
@@ -15185,7 +15213,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>0</v>
       </c>
@@ -15218,7 +15246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>0</v>
       </c>
@@ -15251,7 +15279,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>0</v>
       </c>
@@ -15284,7 +15312,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>0</v>
       </c>
@@ -15317,7 +15345,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>0</v>
       </c>
@@ -15350,7 +15378,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>0</v>
       </c>
@@ -15383,7 +15411,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>0</v>
       </c>
@@ -15416,7 +15444,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>0</v>
       </c>
@@ -15449,7 +15477,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>0</v>
       </c>
@@ -15482,7 +15510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>0</v>
       </c>
@@ -15515,7 +15543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>0</v>
       </c>
@@ -15548,7 +15576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>0</v>
       </c>
@@ -15581,7 +15609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>0</v>
       </c>
@@ -15614,7 +15642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>0</v>
       </c>
@@ -15647,7 +15675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>0</v>
       </c>
@@ -15680,7 +15708,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>0</v>
       </c>
@@ -15713,7 +15741,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>0</v>
       </c>
@@ -15746,7 +15774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>0</v>
       </c>
@@ -15779,7 +15807,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>0</v>
       </c>
@@ -15812,7 +15840,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>0</v>
       </c>
@@ -15845,7 +15873,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>0</v>
       </c>
@@ -15878,7 +15906,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>0</v>
       </c>
@@ -15911,7 +15939,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>0</v>
       </c>
@@ -15944,7 +15972,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>0</v>
       </c>
@@ -15977,7 +16005,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>0</v>
       </c>
@@ -16010,7 +16038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>0</v>
       </c>
@@ -16043,7 +16071,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>0</v>
       </c>
@@ -16076,7 +16104,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>0</v>
       </c>
@@ -16109,7 +16137,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>0</v>
       </c>
@@ -16142,7 +16170,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>0</v>
       </c>
@@ -16175,7 +16203,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>0</v>
       </c>
@@ -16208,7 +16236,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>0</v>
       </c>
@@ -16241,7 +16269,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>0</v>
       </c>
@@ -16274,7 +16302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>0</v>
       </c>
@@ -16307,7 +16335,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>0</v>
       </c>
@@ -16340,7 +16368,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>0</v>
       </c>
@@ -16373,7 +16401,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>0</v>
       </c>
@@ -16406,7 +16434,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>0</v>
       </c>
@@ -16439,7 +16467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>0</v>
       </c>
@@ -16472,7 +16500,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>0</v>
       </c>
@@ -16505,7 +16533,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>0</v>
       </c>
@@ -16538,7 +16566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>0</v>
       </c>
@@ -16571,7 +16599,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>0</v>
       </c>
@@ -16604,7 +16632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>0</v>
       </c>
@@ -16637,7 +16665,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>0</v>
       </c>
@@ -16670,7 +16698,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>0</v>
       </c>
@@ -16703,7 +16731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>0</v>
       </c>
@@ -16736,7 +16764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>0</v>
       </c>
@@ -16769,7 +16797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>0</v>
       </c>
@@ -16802,7 +16830,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>0</v>
       </c>
@@ -16835,7 +16863,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>0</v>
       </c>
@@ -16868,7 +16896,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>0</v>
       </c>
@@ -16901,7 +16929,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>0</v>
       </c>
@@ -16934,7 +16962,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>0</v>
       </c>
@@ -16967,7 +16995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>0</v>
       </c>
@@ -17000,7 +17028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>0</v>
       </c>
@@ -17033,7 +17061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>0</v>
       </c>
@@ -17066,7 +17094,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>0</v>
       </c>
@@ -17099,7 +17127,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>0</v>
       </c>
@@ -17132,7 +17160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>0</v>
       </c>
@@ -17165,7 +17193,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>0</v>
       </c>
@@ -17198,7 +17226,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>0</v>
       </c>
@@ -17231,7 +17259,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>0</v>
       </c>
@@ -17429,7 +17457,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>0</v>
       </c>
@@ -17495,7 +17523,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>0</v>
       </c>
@@ -17528,7 +17556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>0</v>
       </c>
@@ -17594,7 +17622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>0</v>
       </c>
@@ -17825,7 +17853,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>0</v>
       </c>
@@ -17891,7 +17919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>0</v>
       </c>
@@ -17924,7 +17952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>0</v>
       </c>
@@ -17957,7 +17985,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>0</v>
       </c>
@@ -17990,7 +18018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>0</v>
       </c>
@@ -18023,7 +18051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>0</v>
       </c>
@@ -18122,7 +18150,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>0</v>
       </c>
@@ -18155,7 +18183,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>0</v>
       </c>
@@ -18188,7 +18216,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>0</v>
       </c>
@@ -18221,7 +18249,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>0</v>
       </c>
@@ -18254,7 +18282,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>0</v>
       </c>
@@ -18287,7 +18315,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>0</v>
       </c>
@@ -18320,7 +18348,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>0</v>
       </c>
@@ -18353,7 +18381,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>0</v>
       </c>
@@ -18386,7 +18414,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>0</v>
       </c>
@@ -18419,7 +18447,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>0</v>
       </c>
@@ -18452,7 +18480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>0</v>
       </c>
@@ -18485,7 +18513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>0</v>
       </c>
@@ -18518,7 +18546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>0</v>
       </c>
@@ -18551,7 +18579,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>0</v>
       </c>
@@ -18584,7 +18612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>0</v>
       </c>
@@ -18617,7 +18645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>0</v>
       </c>
@@ -18650,7 +18678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>0</v>
       </c>
@@ -18683,7 +18711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>0</v>
       </c>
@@ -18881,7 +18909,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>0</v>
       </c>
@@ -18914,7 +18942,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>0</v>
       </c>
@@ -18947,7 +18975,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>0</v>
       </c>
@@ -18980,7 +19008,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>0</v>
       </c>
@@ -19013,7 +19041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>0</v>
       </c>
@@ -19046,7 +19074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>0</v>
       </c>
@@ -19079,7 +19107,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>0</v>
       </c>
@@ -19112,7 +19140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>0</v>
       </c>
@@ -19145,7 +19173,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>0</v>
       </c>
@@ -19178,7 +19206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>0</v>
       </c>
@@ -19211,7 +19239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>0</v>
       </c>
@@ -19244,7 +19272,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>0</v>
       </c>
@@ -19277,7 +19305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>0</v>
       </c>
@@ -19310,7 +19338,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>0</v>
       </c>
@@ -19343,7 +19371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>0</v>
       </c>
@@ -19376,7 +19404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>0</v>
       </c>
@@ -19409,7 +19437,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>0</v>
       </c>
@@ -19442,7 +19470,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>0</v>
       </c>
@@ -19475,7 +19503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>0</v>
       </c>
@@ -19508,7 +19536,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>0</v>
       </c>
@@ -19541,7 +19569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>0</v>
       </c>
@@ -19574,7 +19602,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>0</v>
       </c>
@@ -19607,7 +19635,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>0</v>
       </c>
@@ -19640,7 +19668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>0</v>
       </c>
@@ -19739,7 +19767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>0</v>
       </c>
@@ -19772,7 +19800,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>0</v>
       </c>
@@ -19805,7 +19833,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>0</v>
       </c>
@@ -19838,7 +19866,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>0</v>
       </c>
@@ -19871,7 +19899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>0</v>
       </c>
@@ -19904,7 +19932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>0</v>
       </c>
@@ -19937,7 +19965,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>0</v>
       </c>
@@ -19970,7 +19998,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>0</v>
       </c>
@@ -20003,7 +20031,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>0</v>
       </c>
@@ -20036,7 +20064,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>0</v>
       </c>
@@ -20069,7 +20097,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>0</v>
       </c>
@@ -20168,7 +20196,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>0</v>
       </c>
@@ -20201,7 +20229,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>0</v>
       </c>
@@ -20234,7 +20262,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>0</v>
       </c>
@@ -20267,7 +20295,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>0</v>
       </c>
@@ -20300,7 +20328,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>0</v>
       </c>
@@ -20333,7 +20361,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>0</v>
       </c>
@@ -20366,7 +20394,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>0</v>
       </c>
@@ -20399,7 +20427,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>0</v>
       </c>
@@ -20432,7 +20460,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>0</v>
       </c>
@@ -20465,7 +20493,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>0</v>
       </c>
@@ -20498,7 +20526,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>0</v>
       </c>
@@ -20531,7 +20559,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>0</v>
       </c>
@@ -20564,7 +20592,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>0</v>
       </c>
@@ -20597,7 +20625,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>0</v>
       </c>
@@ -20630,7 +20658,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>0</v>
       </c>
@@ -20663,7 +20691,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>0</v>
       </c>
@@ -20696,7 +20724,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>0</v>
       </c>
@@ -20729,7 +20757,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>0</v>
       </c>
@@ -20762,7 +20790,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>0</v>
       </c>
@@ -20861,7 +20889,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>0</v>
       </c>
@@ -20894,7 +20922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>0</v>
       </c>
@@ -21026,7 +21054,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>0</v>
       </c>
@@ -21092,7 +21120,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>0</v>
       </c>
@@ -21191,7 +21219,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>0</v>
       </c>
@@ -21224,7 +21252,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>0</v>
       </c>
@@ -21257,7 +21285,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>0</v>
       </c>
@@ -21356,7 +21384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>0</v>
       </c>
@@ -21389,7 +21417,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>0</v>
       </c>
@@ -21422,7 +21450,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>0</v>
       </c>
@@ -21455,7 +21483,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>0</v>
       </c>
@@ -21488,7 +21516,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>0</v>
       </c>
@@ -21521,7 +21549,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>0</v>
       </c>
@@ -21554,7 +21582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>0</v>
       </c>
@@ -21587,7 +21615,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>0</v>
       </c>
@@ -21620,7 +21648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>0</v>
       </c>
@@ -21686,7 +21714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>0</v>
       </c>
@@ -21719,7 +21747,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>0</v>
       </c>
@@ -21752,7 +21780,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>0</v>
       </c>
@@ -21785,7 +21813,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>0</v>
       </c>
@@ -21818,7 +21846,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>0</v>
       </c>
@@ -21851,7 +21879,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>0</v>
       </c>
@@ -21884,7 +21912,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>0</v>
       </c>
@@ -21917,7 +21945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>0</v>
       </c>
@@ -22082,7 +22110,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>0</v>
       </c>
@@ -22148,7 +22176,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>0</v>
       </c>
@@ -22181,7 +22209,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>0</v>
       </c>
@@ -22214,7 +22242,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>0</v>
       </c>
@@ -22247,7 +22275,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>0</v>
       </c>
@@ -22313,7 +22341,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>0</v>
       </c>
@@ -22346,7 +22374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>0</v>
       </c>
@@ -22412,7 +22440,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>0</v>
       </c>
@@ -22445,7 +22473,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>0</v>
       </c>
@@ -22478,7 +22506,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>0</v>
       </c>
@@ -22511,7 +22539,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>0</v>
       </c>
@@ -22544,7 +22572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>0</v>
       </c>
@@ -22577,7 +22605,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>0</v>
       </c>
@@ -22610,7 +22638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>0</v>
       </c>
@@ -22643,7 +22671,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>0</v>
       </c>
@@ -22676,7 +22704,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>0</v>
       </c>
@@ -22709,7 +22737,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>0</v>
       </c>
@@ -22775,7 +22803,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>0</v>
       </c>
@@ -22808,7 +22836,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>0</v>
       </c>
@@ -22841,7 +22869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>0</v>
       </c>
@@ -22874,7 +22902,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>0</v>
       </c>
@@ -22907,7 +22935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>0</v>
       </c>
@@ -22940,7 +22968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>0</v>
       </c>
@@ -22973,7 +23001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>0</v>
       </c>
@@ -23006,7 +23034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>0</v>
       </c>
@@ -23039,7 +23067,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>0</v>
       </c>
@@ -23072,7 +23100,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>0</v>
       </c>
@@ -23171,7 +23199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>0</v>
       </c>
@@ -23237,7 +23265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>0</v>
       </c>
@@ -23270,7 +23298,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>0</v>
       </c>
@@ -23303,7 +23331,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>0</v>
       </c>
@@ -23369,7 +23397,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>0</v>
       </c>
@@ -23402,7 +23430,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>0</v>
       </c>
@@ -23435,7 +23463,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>0</v>
       </c>
@@ -23468,7 +23496,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>0</v>
       </c>
@@ -23501,7 +23529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>0</v>
       </c>
@@ -23567,7 +23595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>0</v>
       </c>
@@ -23600,7 +23628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>0</v>
       </c>
@@ -23666,7 +23694,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>0</v>
       </c>
@@ -23699,7 +23727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>0</v>
       </c>
@@ -23765,7 +23793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>0</v>
       </c>
@@ -23897,7 +23925,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>0</v>
       </c>
@@ -24062,7 +24090,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>0</v>
       </c>
@@ -24095,7 +24123,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>0</v>
       </c>
@@ -24128,7 +24156,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>0</v>
       </c>
@@ -24161,7 +24189,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>0</v>
       </c>
@@ -24227,7 +24255,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>0</v>
       </c>
@@ -24260,7 +24288,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>0</v>
       </c>
@@ -24293,7 +24321,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>0</v>
       </c>
@@ -24359,7 +24387,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>0</v>
       </c>
@@ -24392,7 +24420,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>0</v>
       </c>
@@ -24425,7 +24453,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>0</v>
       </c>
@@ -24458,7 +24486,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>0</v>
       </c>
@@ -24491,7 +24519,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>0</v>
       </c>
@@ -24524,7 +24552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>0</v>
       </c>
@@ -24557,7 +24585,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>0</v>
       </c>
@@ -24590,7 +24618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>0</v>
       </c>
@@ -24623,7 +24651,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>0</v>
       </c>
@@ -26471,7 +26499,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>0</v>
       </c>
@@ -26504,7 +26532,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>0</v>
       </c>
@@ -26537,7 +26565,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>0</v>
       </c>
@@ -26570,7 +26598,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>0</v>
       </c>
@@ -26603,7 +26631,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>0</v>
       </c>
@@ -26636,7 +26664,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>0</v>
       </c>
@@ -26669,7 +26697,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>0</v>
       </c>
@@ -26702,7 +26730,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>0</v>
       </c>
@@ -26801,7 +26829,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>0</v>
       </c>
@@ -26834,7 +26862,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>0</v>
       </c>
@@ -26867,7 +26895,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>0</v>
       </c>
@@ -27164,7 +27192,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>0</v>
       </c>
@@ -27197,7 +27225,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>0</v>
       </c>
@@ -27230,7 +27258,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>0</v>
       </c>
@@ -27263,7 +27291,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>0</v>
       </c>
@@ -27296,7 +27324,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>0</v>
       </c>
@@ -27329,7 +27357,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>0</v>
       </c>
@@ -27362,7 +27390,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>0</v>
       </c>
@@ -27395,7 +27423,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>0</v>
       </c>
@@ -27428,7 +27456,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>0</v>
       </c>
@@ -27461,7 +27489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>0</v>
       </c>
@@ -27494,7 +27522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>0</v>
       </c>
@@ -27527,7 +27555,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>0</v>
       </c>
@@ -27626,7 +27654,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>0</v>
       </c>
@@ -27692,7 +27720,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>0</v>
       </c>
@@ -27791,7 +27819,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>0</v>
       </c>
@@ -27824,7 +27852,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>0</v>
       </c>
@@ -27857,7 +27885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>0</v>
       </c>
@@ -27890,7 +27918,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>0</v>
       </c>
@@ -27923,7 +27951,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>0</v>
       </c>
@@ -27956,7 +27984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>0</v>
       </c>
@@ -27989,7 +28017,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>0</v>
       </c>
@@ -28022,7 +28050,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>0</v>
       </c>
@@ -28055,7 +28083,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>0</v>
       </c>
@@ -28088,7 +28116,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>0</v>
       </c>
@@ -28154,7 +28182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>0</v>
       </c>
@@ -28220,7 +28248,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>0</v>
       </c>
@@ -28253,7 +28281,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>0</v>
       </c>
@@ -28286,7 +28314,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>0</v>
       </c>
@@ -28319,7 +28347,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>0</v>
       </c>
@@ -28484,7 +28512,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>0</v>
       </c>
@@ -28649,7 +28677,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>0</v>
       </c>
@@ -28682,7 +28710,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>0</v>
       </c>
@@ -28715,7 +28743,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>0</v>
       </c>
@@ -28814,7 +28842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="573" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>0</v>
       </c>
@@ -28847,7 +28875,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>0</v>
       </c>
@@ -28880,7 +28908,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>0</v>
       </c>
@@ -28913,7 +28941,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>0</v>
       </c>
@@ -28946,7 +28974,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>0</v>
       </c>
@@ -28981,6 +29009,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J577">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Ring"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:J577">
       <sortCondition ref="C1:C577"/>
     </sortState>
@@ -28991,10 +29024,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J867"/>
+  <dimension ref="A1:J870"/>
   <sheetViews>
     <sheetView topLeftCell="A848" workbookViewId="0">
-      <selection activeCell="I865" sqref="I865:I867"/>
+      <selection activeCell="J869" sqref="J869"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57516,7 +57549,7 @@
         <v>2996</v>
       </c>
       <c r="J864">
-        <f t="shared" ref="J864:J867" si="15">LEN(I864)</f>
+        <f t="shared" ref="J864:J870" si="15">LEN(I864)</f>
         <v>24</v>
       </c>
     </row>
@@ -57615,6 +57648,105 @@
         <v>3028</v>
       </c>
       <c r="J867">
+        <f t="shared" si="15"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="868" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A868" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B868" t="s">
+        <v>3030</v>
+      </c>
+      <c r="C868" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="D868">
+        <v>0</v>
+      </c>
+      <c r="E868" t="s">
+        <v>171</v>
+      </c>
+      <c r="F868">
+        <v>0</v>
+      </c>
+      <c r="G868">
+        <v>0</v>
+      </c>
+      <c r="H868">
+        <v>0</v>
+      </c>
+      <c r="I868" t="s">
+        <v>3032</v>
+      </c>
+      <c r="J868">
+        <f t="shared" si="15"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="869" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A869" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B869" t="s">
+        <v>3033</v>
+      </c>
+      <c r="C869" s="1" t="s">
+        <v>3034</v>
+      </c>
+      <c r="D869">
+        <v>0</v>
+      </c>
+      <c r="E869" t="s">
+        <v>155</v>
+      </c>
+      <c r="F869">
+        <v>0</v>
+      </c>
+      <c r="G869">
+        <v>0</v>
+      </c>
+      <c r="H869">
+        <v>0</v>
+      </c>
+      <c r="I869" t="s">
+        <v>3038</v>
+      </c>
+      <c r="J869">
+        <f t="shared" si="15"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="870" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A870" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B870" t="s">
+        <v>3036</v>
+      </c>
+      <c r="C870" s="1" t="s">
+        <v>3035</v>
+      </c>
+      <c r="D870">
+        <v>0</v>
+      </c>
+      <c r="E870" t="s">
+        <v>155</v>
+      </c>
+      <c r="F870">
+        <v>0</v>
+      </c>
+      <c r="G870">
+        <v>0</v>
+      </c>
+      <c r="H870">
+        <v>0</v>
+      </c>
+      <c r="I870" s="1" t="s">
+        <v>3037</v>
+      </c>
+      <c r="J870">
         <f t="shared" si="15"/>
         <v>22</v>
       </c>
@@ -57628,10 +57760,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1443"/>
+  <dimension ref="A1:D1446"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1436" workbookViewId="0">
-      <selection activeCell="D1443" sqref="D1443"/>
+      <selection activeCell="D1447" sqref="D1447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -78801,7 +78933,7 @@
         <v>2980</v>
       </c>
       <c r="D1411" t="str">
-        <f t="shared" ref="D1411:D1443" si="22">IF(B1411&lt;&gt;C1411,"{ID="&amp;""""&amp;A1411&amp;""""&amp;", name="&amp;""""&amp;C1411&amp;""""&amp;"},","")</f>
+        <f t="shared" ref="D1411:D1446" si="22">IF(B1411&lt;&gt;C1411,"{ID="&amp;""""&amp;A1411&amp;""""&amp;", name="&amp;""""&amp;C1411&amp;""""&amp;"},","")</f>
         <v>{ID="1embc_c_sk_05", name="Skirt Common Girl"},</v>
       </c>
     </row>
@@ -79283,6 +79415,51 @@
       <c r="D1443" t="str">
         <f t="shared" si="22"/>
         <v>{ID="POT_FamilyRing3", name="Ring Sedno Nededrisa's"},</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1444" t="s">
+        <v>3030</v>
+      </c>
+      <c r="B1444" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="C1444" t="s">
+        <v>3032</v>
+      </c>
+      <c r="D1444" t="str">
+        <f t="shared" si="22"/>
+        <v>{ID="ABtv_c_FireBarrierAmulet", name="Amulet of Fire Barrier"},</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1445" t="s">
+        <v>3033</v>
+      </c>
+      <c r="B1445" s="1" t="s">
+        <v>3034</v>
+      </c>
+      <c r="C1445" t="s">
+        <v>3038</v>
+      </c>
+      <c r="D1445" t="str">
+        <f t="shared" si="22"/>
+        <v>{ID="ABtv_c_LesserFireShieldRing", name="Ring Lesser of Shielding Flames"},</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1446" t="s">
+        <v>3036</v>
+      </c>
+      <c r="B1446" s="1" t="s">
+        <v>3035</v>
+      </c>
+      <c r="C1446" s="1" t="s">
+        <v>3037</v>
+      </c>
+      <c r="D1446" t="str">
+        <f t="shared" si="22"/>
+        <v>{ID="ABtv_c_EbonyCharismaRing", name="Ring Ebony of Charisma"},</v>
       </c>
     </row>
   </sheetData>

--- a/BetterNames-v2.1-Clothing.xlsx
+++ b/BetterNames-v2.1-Clothing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23595" windowHeight="10440" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23595" windowHeight="10440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Clothing-BASE" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11584" uniqueCount="3039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11600" uniqueCount="3045">
   <si>
     <t>CLOT</t>
   </si>
@@ -9143,6 +9143,24 @@
   </si>
   <si>
     <t>Ring Lesser of Shielding Flames</t>
+  </si>
+  <si>
+    <t>ABtm_c_RedJinxRing</t>
+  </si>
+  <si>
+    <t>Red Jinx</t>
+  </si>
+  <si>
+    <t>ABtm_c_WhiteJinxRing</t>
+  </si>
+  <si>
+    <t>White Jinx</t>
+  </si>
+  <si>
+    <t>Ring Jinx Red</t>
+  </si>
+  <si>
+    <t>Ring Jinx White</t>
   </si>
 </sst>
 </file>
@@ -29024,10 +29042,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J870"/>
+  <dimension ref="A1:J872"/>
   <sheetViews>
-    <sheetView topLeftCell="A848" workbookViewId="0">
-      <selection activeCell="J869" sqref="J869"/>
+    <sheetView tabSelected="1" topLeftCell="A848" workbookViewId="0">
+      <selection activeCell="C856" sqref="C856"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57549,7 +57567,7 @@
         <v>2996</v>
       </c>
       <c r="J864">
-        <f t="shared" ref="J864:J870" si="15">LEN(I864)</f>
+        <f t="shared" ref="J864:J872" si="15">LEN(I864)</f>
         <v>24</v>
       </c>
     </row>
@@ -57749,6 +57767,72 @@
       <c r="J870">
         <f t="shared" si="15"/>
         <v>22</v>
+      </c>
+    </row>
+    <row r="871" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A871" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B871" t="s">
+        <v>3039</v>
+      </c>
+      <c r="C871" s="1" t="s">
+        <v>3040</v>
+      </c>
+      <c r="D871">
+        <v>0</v>
+      </c>
+      <c r="E871" t="s">
+        <v>155</v>
+      </c>
+      <c r="F871">
+        <v>0</v>
+      </c>
+      <c r="G871">
+        <v>0</v>
+      </c>
+      <c r="H871">
+        <v>0</v>
+      </c>
+      <c r="I871" s="1" t="s">
+        <v>3043</v>
+      </c>
+      <c r="J871">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="872" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A872" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B872" t="s">
+        <v>3041</v>
+      </c>
+      <c r="C872" s="1" t="s">
+        <v>3042</v>
+      </c>
+      <c r="D872">
+        <v>0</v>
+      </c>
+      <c r="E872" t="s">
+        <v>155</v>
+      </c>
+      <c r="F872">
+        <v>0</v>
+      </c>
+      <c r="G872">
+        <v>0</v>
+      </c>
+      <c r="H872">
+        <v>0</v>
+      </c>
+      <c r="I872" s="1" t="s">
+        <v>3044</v>
+      </c>
+      <c r="J872">
+        <f t="shared" si="15"/>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -57760,10 +57844,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1446"/>
+  <dimension ref="A1:D1448"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1436" workbookViewId="0">
-      <selection activeCell="D1447" sqref="D1447"/>
+    <sheetView topLeftCell="A1421" workbookViewId="0">
+      <selection activeCell="F1439" sqref="F1439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -78933,7 +79017,7 @@
         <v>2980</v>
       </c>
       <c r="D1411" t="str">
-        <f t="shared" ref="D1411:D1446" si="22">IF(B1411&lt;&gt;C1411,"{ID="&amp;""""&amp;A1411&amp;""""&amp;", name="&amp;""""&amp;C1411&amp;""""&amp;"},","")</f>
+        <f t="shared" ref="D1411:D1448" si="22">IF(B1411&lt;&gt;C1411,"{ID="&amp;""""&amp;A1411&amp;""""&amp;", name="&amp;""""&amp;C1411&amp;""""&amp;"},","")</f>
         <v>{ID="1embc_c_sk_05", name="Skirt Common Girl"},</v>
       </c>
     </row>
@@ -79460,6 +79544,36 @@
       <c r="D1446" t="str">
         <f t="shared" si="22"/>
         <v>{ID="ABtv_c_EbonyCharismaRing", name="Ring Ebony of Charisma"},</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1447" t="s">
+        <v>3039</v>
+      </c>
+      <c r="B1447" s="1" t="s">
+        <v>3040</v>
+      </c>
+      <c r="C1447" s="1" t="s">
+        <v>3043</v>
+      </c>
+      <c r="D1447" t="str">
+        <f t="shared" si="22"/>
+        <v>{ID="ABtm_c_RedJinxRing", name="Ring Jinx Red"},</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1448" t="s">
+        <v>3041</v>
+      </c>
+      <c r="B1448" s="1" t="s">
+        <v>3042</v>
+      </c>
+      <c r="C1448" s="1" t="s">
+        <v>3044</v>
+      </c>
+      <c r="D1448" t="str">
+        <f t="shared" si="22"/>
+        <v>{ID="ABtm_c_WhiteJinxRing", name="Ring Jinx White"},</v>
       </c>
     </row>
   </sheetData>

--- a/BetterNames-v2.1-Clothing.xlsx
+++ b/BetterNames-v2.1-Clothing.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11600" uniqueCount="3045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11888" uniqueCount="3125">
   <si>
     <t>CLOT</t>
   </si>
@@ -9161,6 +9161,246 @@
   </si>
   <si>
     <t>Ring Jinx White</t>
+  </si>
+  <si>
+    <t>mg_c_robe_alt</t>
+  </si>
+  <si>
+    <t>Novice Robes of Alteration</t>
+  </si>
+  <si>
+    <t>mg_c_robe_alt_hood</t>
+  </si>
+  <si>
+    <t>mg_c_robe_ill_hood</t>
+  </si>
+  <si>
+    <t>Novice Robes of Illusion</t>
+  </si>
+  <si>
+    <t>mg_c_robe_ill</t>
+  </si>
+  <si>
+    <t>mg_c_robe_res</t>
+  </si>
+  <si>
+    <t>Novice Robes of Restoration</t>
+  </si>
+  <si>
+    <t>mg_c_robe_res_hood</t>
+  </si>
+  <si>
+    <t>mg_c_robe_con_hood</t>
+  </si>
+  <si>
+    <t>Novice Robes of Conjuration</t>
+  </si>
+  <si>
+    <t>mg_c_robe_con</t>
+  </si>
+  <si>
+    <t>mg_c_robe_enc_hood</t>
+  </si>
+  <si>
+    <t>Novice Robes of Enchanting</t>
+  </si>
+  <si>
+    <t>mg_c_robe_enc</t>
+  </si>
+  <si>
+    <t>mg_c_robe_des_hood</t>
+  </si>
+  <si>
+    <t>Novice Robes of Destruction</t>
+  </si>
+  <si>
+    <t>mg_c_robe_des</t>
+  </si>
+  <si>
+    <t>mg_c_robe_alc_hood</t>
+  </si>
+  <si>
+    <t>Novice Robes of Alchemy</t>
+  </si>
+  <si>
+    <t>mg_c_robe_alc</t>
+  </si>
+  <si>
+    <t>mg_c_robe_mys_hood</t>
+  </si>
+  <si>
+    <t>Novice Robes of Mysticism</t>
+  </si>
+  <si>
+    <t>mg_c_robe_mys</t>
+  </si>
+  <si>
+    <t>mg_c_robe_resmas_hood</t>
+  </si>
+  <si>
+    <t>Master Robes of Restoration</t>
+  </si>
+  <si>
+    <t>mg_c_robe_resmas</t>
+  </si>
+  <si>
+    <t>mg_c_robe_mysmas_hood</t>
+  </si>
+  <si>
+    <t>Master Robes of Mysticism</t>
+  </si>
+  <si>
+    <t>mg_c_robe_mysmas</t>
+  </si>
+  <si>
+    <t>mg_c_robe_illmas_hood</t>
+  </si>
+  <si>
+    <t>Master Robes of Illusion</t>
+  </si>
+  <si>
+    <t>mg_c_robe_illmas</t>
+  </si>
+  <si>
+    <t>mg_c_robe_encmas_hood</t>
+  </si>
+  <si>
+    <t>Master Robes of Enchanting</t>
+  </si>
+  <si>
+    <t>mg_c_robe_encmas</t>
+  </si>
+  <si>
+    <t>mg_c_robe_desmas_hood</t>
+  </si>
+  <si>
+    <t>Master Robes of Destruction</t>
+  </si>
+  <si>
+    <t>mg_c_robe_desmas</t>
+  </si>
+  <si>
+    <t>mg_c_robe_conmas_hood</t>
+  </si>
+  <si>
+    <t>Master Robes of Conjuration</t>
+  </si>
+  <si>
+    <t>mg_c_robe_conmas</t>
+  </si>
+  <si>
+    <t>mg_c_robe_altmas_hood</t>
+  </si>
+  <si>
+    <t>Master Robes of Alteration</t>
+  </si>
+  <si>
+    <t>mg_c_robe_altmas</t>
+  </si>
+  <si>
+    <t>mg_c_robe_alcmas_hood</t>
+  </si>
+  <si>
+    <t>Master Robes of Alchemy</t>
+  </si>
+  <si>
+    <t>mg_c_robe_alcmas</t>
+  </si>
+  <si>
+    <t>mg_c_robe_illmas_uni</t>
+  </si>
+  <si>
+    <t>mg_c_robe_nov</t>
+  </si>
+  <si>
+    <t>Novice Robes</t>
+  </si>
+  <si>
+    <t>mg_c_robe_nov_hood</t>
+  </si>
+  <si>
+    <t>mg_c_robe_mas_hood</t>
+  </si>
+  <si>
+    <t>Master Robes</t>
+  </si>
+  <si>
+    <t>mg_c_robe_mas</t>
+  </si>
+  <si>
+    <t>mg_c_robe_dummy</t>
+  </si>
+  <si>
+    <t>mg_c_robe_arch</t>
+  </si>
+  <si>
+    <t>Arch-Mage's Robes</t>
+  </si>
+  <si>
+    <t>mg_c_robe_arch_hood</t>
+  </si>
+  <si>
+    <t>mg_c_amulet_winter</t>
+  </si>
+  <si>
+    <t>Amulet of Winter's Embrace</t>
+  </si>
+  <si>
+    <t>Robes Novice of Alteration</t>
+  </si>
+  <si>
+    <t>Robes Novice of Illusion</t>
+  </si>
+  <si>
+    <t>Robes Novice of Restoration</t>
+  </si>
+  <si>
+    <t>Robes Novice of Conjuration</t>
+  </si>
+  <si>
+    <t>Robes Novice of Enchanting</t>
+  </si>
+  <si>
+    <t>Robes Novice of Destruction</t>
+  </si>
+  <si>
+    <t>Robes Novice of Alchemy</t>
+  </si>
+  <si>
+    <t>Robes Novice of Mysticism</t>
+  </si>
+  <si>
+    <t>Robes Master of Restoration</t>
+  </si>
+  <si>
+    <t>Robes Master of Mysticism</t>
+  </si>
+  <si>
+    <t>Robes Master of Illusion</t>
+  </si>
+  <si>
+    <t>Robes Master of Enchanting</t>
+  </si>
+  <si>
+    <t>Robes Master of Destruction</t>
+  </si>
+  <si>
+    <t>Robes Master of Conjuration</t>
+  </si>
+  <si>
+    <t>Robes Master of Alteration</t>
+  </si>
+  <si>
+    <t>Robes Master of Alchemy</t>
+  </si>
+  <si>
+    <t>Robes Novice</t>
+  </si>
+  <si>
+    <t>Robes Master</t>
+  </si>
+  <si>
+    <t>Robes Arch-Mage's</t>
   </si>
 </sst>
 </file>
@@ -29042,10 +29282,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J872"/>
+  <dimension ref="A1:J913"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A848" workbookViewId="0">
-      <selection activeCell="C856" sqref="C856"/>
+    <sheetView tabSelected="1" topLeftCell="A871" workbookViewId="0">
+      <selection activeCell="I888" sqref="I888"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57567,7 +57807,7 @@
         <v>2996</v>
       </c>
       <c r="J864">
-        <f t="shared" ref="J864:J872" si="15">LEN(I864)</f>
+        <f t="shared" ref="J864:J912" si="15">LEN(I864)</f>
         <v>24</v>
       </c>
     </row>
@@ -57833,6 +58073,1395 @@
       <c r="J872">
         <f t="shared" si="15"/>
         <v>15</v>
+      </c>
+    </row>
+    <row r="873" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A873" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B873" t="s">
+        <v>3045</v>
+      </c>
+      <c r="C873" t="s">
+        <v>3046</v>
+      </c>
+      <c r="D873">
+        <v>4</v>
+      </c>
+      <c r="E873" t="s">
+        <v>111</v>
+      </c>
+      <c r="F873">
+        <v>6</v>
+      </c>
+      <c r="G873">
+        <v>800</v>
+      </c>
+      <c r="H873">
+        <v>200</v>
+      </c>
+      <c r="I873" t="str">
+        <f>"Robes "&amp;LEFT(C873,FIND(" ",C873)-1)&amp;MID(C873,FIND("Robes",C873)+5,30)</f>
+        <v>Robes Novice of Alteration</v>
+      </c>
+      <c r="J873">
+        <f t="shared" si="15"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="874" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A874" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B874" t="s">
+        <v>3047</v>
+      </c>
+      <c r="C874" t="s">
+        <v>3046</v>
+      </c>
+      <c r="D874">
+        <v>4</v>
+      </c>
+      <c r="E874" t="s">
+        <v>111</v>
+      </c>
+      <c r="F874">
+        <v>6</v>
+      </c>
+      <c r="G874">
+        <v>800</v>
+      </c>
+      <c r="H874">
+        <v>200</v>
+      </c>
+      <c r="I874" t="str">
+        <f t="shared" ref="I874:I905" si="16">"Robes "&amp;LEFT(C874,FIND(" ",C874)-1)&amp;MID(C874,FIND("Robes",C874)+5,30)</f>
+        <v>Robes Novice of Alteration</v>
+      </c>
+      <c r="J874">
+        <f t="shared" si="15"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="875" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A875" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B875" t="s">
+        <v>3048</v>
+      </c>
+      <c r="C875" t="s">
+        <v>3049</v>
+      </c>
+      <c r="D875">
+        <v>4</v>
+      </c>
+      <c r="E875" t="s">
+        <v>111</v>
+      </c>
+      <c r="F875">
+        <v>6</v>
+      </c>
+      <c r="G875">
+        <v>800</v>
+      </c>
+      <c r="H875">
+        <v>200</v>
+      </c>
+      <c r="I875" t="str">
+        <f t="shared" si="16"/>
+        <v>Robes Novice of Illusion</v>
+      </c>
+      <c r="J875">
+        <f t="shared" si="15"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="876" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A876" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B876" t="s">
+        <v>3050</v>
+      </c>
+      <c r="C876" t="s">
+        <v>3049</v>
+      </c>
+      <c r="D876">
+        <v>4</v>
+      </c>
+      <c r="E876" t="s">
+        <v>111</v>
+      </c>
+      <c r="F876">
+        <v>6</v>
+      </c>
+      <c r="G876">
+        <v>800</v>
+      </c>
+      <c r="H876">
+        <v>200</v>
+      </c>
+      <c r="I876" t="str">
+        <f t="shared" si="16"/>
+        <v>Robes Novice of Illusion</v>
+      </c>
+      <c r="J876">
+        <f t="shared" si="15"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="877" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A877" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B877" t="s">
+        <v>3051</v>
+      </c>
+      <c r="C877" t="s">
+        <v>3052</v>
+      </c>
+      <c r="D877">
+        <v>4</v>
+      </c>
+      <c r="E877" t="s">
+        <v>111</v>
+      </c>
+      <c r="F877">
+        <v>6</v>
+      </c>
+      <c r="G877">
+        <v>800</v>
+      </c>
+      <c r="H877">
+        <v>200</v>
+      </c>
+      <c r="I877" t="str">
+        <f t="shared" si="16"/>
+        <v>Robes Novice of Restoration</v>
+      </c>
+      <c r="J877">
+        <f t="shared" si="15"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="878" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A878" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B878" t="s">
+        <v>3053</v>
+      </c>
+      <c r="C878" t="s">
+        <v>3052</v>
+      </c>
+      <c r="D878">
+        <v>4</v>
+      </c>
+      <c r="E878" t="s">
+        <v>111</v>
+      </c>
+      <c r="F878">
+        <v>6</v>
+      </c>
+      <c r="G878">
+        <v>800</v>
+      </c>
+      <c r="H878">
+        <v>200</v>
+      </c>
+      <c r="I878" t="str">
+        <f t="shared" si="16"/>
+        <v>Robes Novice of Restoration</v>
+      </c>
+      <c r="J878">
+        <f t="shared" si="15"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="879" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A879" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B879" t="s">
+        <v>3054</v>
+      </c>
+      <c r="C879" t="s">
+        <v>3055</v>
+      </c>
+      <c r="D879">
+        <v>4</v>
+      </c>
+      <c r="E879" t="s">
+        <v>111</v>
+      </c>
+      <c r="F879">
+        <v>6</v>
+      </c>
+      <c r="G879">
+        <v>800</v>
+      </c>
+      <c r="H879">
+        <v>200</v>
+      </c>
+      <c r="I879" t="str">
+        <f t="shared" si="16"/>
+        <v>Robes Novice of Conjuration</v>
+      </c>
+      <c r="J879">
+        <f t="shared" si="15"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="880" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A880" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B880" t="s">
+        <v>3056</v>
+      </c>
+      <c r="C880" t="s">
+        <v>3055</v>
+      </c>
+      <c r="D880">
+        <v>4</v>
+      </c>
+      <c r="E880" t="s">
+        <v>111</v>
+      </c>
+      <c r="F880">
+        <v>6</v>
+      </c>
+      <c r="G880">
+        <v>800</v>
+      </c>
+      <c r="H880">
+        <v>200</v>
+      </c>
+      <c r="I880" t="str">
+        <f t="shared" si="16"/>
+        <v>Robes Novice of Conjuration</v>
+      </c>
+      <c r="J880">
+        <f t="shared" si="15"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="881" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A881" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B881" t="s">
+        <v>3057</v>
+      </c>
+      <c r="C881" t="s">
+        <v>3058</v>
+      </c>
+      <c r="D881">
+        <v>4</v>
+      </c>
+      <c r="E881" t="s">
+        <v>111</v>
+      </c>
+      <c r="F881">
+        <v>6</v>
+      </c>
+      <c r="G881">
+        <v>800</v>
+      </c>
+      <c r="H881">
+        <v>200</v>
+      </c>
+      <c r="I881" t="str">
+        <f t="shared" si="16"/>
+        <v>Robes Novice of Enchanting</v>
+      </c>
+      <c r="J881">
+        <f t="shared" si="15"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="882" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A882" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B882" t="s">
+        <v>3059</v>
+      </c>
+      <c r="C882" t="s">
+        <v>3058</v>
+      </c>
+      <c r="D882">
+        <v>4</v>
+      </c>
+      <c r="E882" t="s">
+        <v>111</v>
+      </c>
+      <c r="F882">
+        <v>6</v>
+      </c>
+      <c r="G882">
+        <v>800</v>
+      </c>
+      <c r="H882">
+        <v>200</v>
+      </c>
+      <c r="I882" t="str">
+        <f t="shared" si="16"/>
+        <v>Robes Novice of Enchanting</v>
+      </c>
+      <c r="J882">
+        <f t="shared" si="15"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="883" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A883" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B883" t="s">
+        <v>3060</v>
+      </c>
+      <c r="C883" t="s">
+        <v>3061</v>
+      </c>
+      <c r="D883">
+        <v>4</v>
+      </c>
+      <c r="E883" t="s">
+        <v>111</v>
+      </c>
+      <c r="F883">
+        <v>6</v>
+      </c>
+      <c r="G883">
+        <v>800</v>
+      </c>
+      <c r="H883">
+        <v>200</v>
+      </c>
+      <c r="I883" t="str">
+        <f t="shared" si="16"/>
+        <v>Robes Novice of Destruction</v>
+      </c>
+      <c r="J883">
+        <f t="shared" si="15"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="884" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A884" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B884" t="s">
+        <v>3062</v>
+      </c>
+      <c r="C884" t="s">
+        <v>3061</v>
+      </c>
+      <c r="D884">
+        <v>4</v>
+      </c>
+      <c r="E884" t="s">
+        <v>111</v>
+      </c>
+      <c r="F884">
+        <v>6</v>
+      </c>
+      <c r="G884">
+        <v>800</v>
+      </c>
+      <c r="H884">
+        <v>200</v>
+      </c>
+      <c r="I884" t="str">
+        <f t="shared" si="16"/>
+        <v>Robes Novice of Destruction</v>
+      </c>
+      <c r="J884">
+        <f t="shared" si="15"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="885" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A885" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B885" t="s">
+        <v>3063</v>
+      </c>
+      <c r="C885" t="s">
+        <v>3064</v>
+      </c>
+      <c r="D885">
+        <v>4</v>
+      </c>
+      <c r="E885" t="s">
+        <v>111</v>
+      </c>
+      <c r="F885">
+        <v>6</v>
+      </c>
+      <c r="G885">
+        <v>800</v>
+      </c>
+      <c r="H885">
+        <v>200</v>
+      </c>
+      <c r="I885" t="str">
+        <f t="shared" si="16"/>
+        <v>Robes Novice of Alchemy</v>
+      </c>
+      <c r="J885">
+        <f t="shared" si="15"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="886" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A886" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B886" t="s">
+        <v>3065</v>
+      </c>
+      <c r="C886" t="s">
+        <v>3064</v>
+      </c>
+      <c r="D886">
+        <v>4</v>
+      </c>
+      <c r="E886" t="s">
+        <v>111</v>
+      </c>
+      <c r="F886">
+        <v>6</v>
+      </c>
+      <c r="G886">
+        <v>800</v>
+      </c>
+      <c r="H886">
+        <v>200</v>
+      </c>
+      <c r="I886" t="str">
+        <f t="shared" si="16"/>
+        <v>Robes Novice of Alchemy</v>
+      </c>
+      <c r="J886">
+        <f t="shared" si="15"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="887" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A887" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B887" t="s">
+        <v>3066</v>
+      </c>
+      <c r="C887" t="s">
+        <v>3067</v>
+      </c>
+      <c r="D887">
+        <v>4</v>
+      </c>
+      <c r="E887" t="s">
+        <v>111</v>
+      </c>
+      <c r="F887">
+        <v>6</v>
+      </c>
+      <c r="G887">
+        <v>800</v>
+      </c>
+      <c r="H887">
+        <v>200</v>
+      </c>
+      <c r="I887" t="str">
+        <f t="shared" si="16"/>
+        <v>Robes Novice of Mysticism</v>
+      </c>
+      <c r="J887">
+        <f t="shared" si="15"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="888" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A888" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B888" t="s">
+        <v>3068</v>
+      </c>
+      <c r="C888" t="s">
+        <v>3067</v>
+      </c>
+      <c r="D888">
+        <v>4</v>
+      </c>
+      <c r="E888" t="s">
+        <v>111</v>
+      </c>
+      <c r="F888">
+        <v>6</v>
+      </c>
+      <c r="G888">
+        <v>800</v>
+      </c>
+      <c r="H888">
+        <v>200</v>
+      </c>
+      <c r="I888" t="str">
+        <f t="shared" si="16"/>
+        <v>Robes Novice of Mysticism</v>
+      </c>
+      <c r="J888">
+        <f t="shared" si="15"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="889" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A889" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B889" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C889" t="s">
+        <v>3070</v>
+      </c>
+      <c r="D889">
+        <v>4</v>
+      </c>
+      <c r="E889" t="s">
+        <v>111</v>
+      </c>
+      <c r="F889">
+        <v>6</v>
+      </c>
+      <c r="G889">
+        <v>1500</v>
+      </c>
+      <c r="H889">
+        <v>400</v>
+      </c>
+      <c r="I889" t="str">
+        <f t="shared" si="16"/>
+        <v>Robes Master of Restoration</v>
+      </c>
+      <c r="J889">
+        <f t="shared" si="15"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="890" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A890" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B890" t="s">
+        <v>3071</v>
+      </c>
+      <c r="C890" t="s">
+        <v>3070</v>
+      </c>
+      <c r="D890">
+        <v>4</v>
+      </c>
+      <c r="E890" t="s">
+        <v>111</v>
+      </c>
+      <c r="F890">
+        <v>6</v>
+      </c>
+      <c r="G890">
+        <v>1500</v>
+      </c>
+      <c r="H890">
+        <v>400</v>
+      </c>
+      <c r="I890" t="str">
+        <f t="shared" si="16"/>
+        <v>Robes Master of Restoration</v>
+      </c>
+      <c r="J890">
+        <f t="shared" si="15"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="891" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A891" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B891" t="s">
+        <v>3072</v>
+      </c>
+      <c r="C891" t="s">
+        <v>3073</v>
+      </c>
+      <c r="D891">
+        <v>4</v>
+      </c>
+      <c r="E891" t="s">
+        <v>111</v>
+      </c>
+      <c r="F891">
+        <v>6</v>
+      </c>
+      <c r="G891">
+        <v>1500</v>
+      </c>
+      <c r="H891">
+        <v>400</v>
+      </c>
+      <c r="I891" t="str">
+        <f>"Robes "&amp;LEFT(C891,FIND(" ",C891)-1)&amp;MID(C891,FIND("Robes",C891)+5,30)</f>
+        <v>Robes Master of Mysticism</v>
+      </c>
+      <c r="J891">
+        <f t="shared" si="15"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="892" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A892" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B892" t="s">
+        <v>3074</v>
+      </c>
+      <c r="C892" t="s">
+        <v>3073</v>
+      </c>
+      <c r="D892">
+        <v>4</v>
+      </c>
+      <c r="E892" t="s">
+        <v>111</v>
+      </c>
+      <c r="F892">
+        <v>6</v>
+      </c>
+      <c r="G892">
+        <v>1500</v>
+      </c>
+      <c r="H892">
+        <v>400</v>
+      </c>
+      <c r="I892" t="str">
+        <f t="shared" si="16"/>
+        <v>Robes Master of Mysticism</v>
+      </c>
+      <c r="J892">
+        <f t="shared" si="15"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="893" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A893" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B893" t="s">
+        <v>3075</v>
+      </c>
+      <c r="C893" t="s">
+        <v>3076</v>
+      </c>
+      <c r="D893">
+        <v>4</v>
+      </c>
+      <c r="E893" t="s">
+        <v>111</v>
+      </c>
+      <c r="F893">
+        <v>6</v>
+      </c>
+      <c r="G893">
+        <v>1500</v>
+      </c>
+      <c r="H893">
+        <v>400</v>
+      </c>
+      <c r="I893" t="str">
+        <f t="shared" si="16"/>
+        <v>Robes Master of Illusion</v>
+      </c>
+      <c r="J893">
+        <f t="shared" si="15"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="894" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A894" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B894" t="s">
+        <v>3077</v>
+      </c>
+      <c r="C894" t="s">
+        <v>3076</v>
+      </c>
+      <c r="D894">
+        <v>4</v>
+      </c>
+      <c r="E894" t="s">
+        <v>111</v>
+      </c>
+      <c r="F894">
+        <v>6</v>
+      </c>
+      <c r="G894">
+        <v>1500</v>
+      </c>
+      <c r="H894">
+        <v>400</v>
+      </c>
+      <c r="I894" t="str">
+        <f t="shared" si="16"/>
+        <v>Robes Master of Illusion</v>
+      </c>
+      <c r="J894">
+        <f t="shared" si="15"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="895" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A895" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B895" t="s">
+        <v>3078</v>
+      </c>
+      <c r="C895" t="s">
+        <v>3079</v>
+      </c>
+      <c r="D895">
+        <v>4</v>
+      </c>
+      <c r="E895" t="s">
+        <v>111</v>
+      </c>
+      <c r="F895">
+        <v>6</v>
+      </c>
+      <c r="G895">
+        <v>1500</v>
+      </c>
+      <c r="H895">
+        <v>400</v>
+      </c>
+      <c r="I895" t="str">
+        <f t="shared" si="16"/>
+        <v>Robes Master of Enchanting</v>
+      </c>
+      <c r="J895">
+        <f t="shared" si="15"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="896" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A896" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B896" t="s">
+        <v>3080</v>
+      </c>
+      <c r="C896" t="s">
+        <v>3079</v>
+      </c>
+      <c r="D896">
+        <v>4</v>
+      </c>
+      <c r="E896" t="s">
+        <v>111</v>
+      </c>
+      <c r="F896">
+        <v>6</v>
+      </c>
+      <c r="G896">
+        <v>1500</v>
+      </c>
+      <c r="H896">
+        <v>400</v>
+      </c>
+      <c r="I896" t="str">
+        <f t="shared" si="16"/>
+        <v>Robes Master of Enchanting</v>
+      </c>
+      <c r="J896">
+        <f t="shared" si="15"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="897" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A897" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B897" t="s">
+        <v>3081</v>
+      </c>
+      <c r="C897" t="s">
+        <v>3082</v>
+      </c>
+      <c r="D897">
+        <v>4</v>
+      </c>
+      <c r="E897" t="s">
+        <v>111</v>
+      </c>
+      <c r="F897">
+        <v>6</v>
+      </c>
+      <c r="G897">
+        <v>1500</v>
+      </c>
+      <c r="H897">
+        <v>400</v>
+      </c>
+      <c r="I897" t="str">
+        <f t="shared" si="16"/>
+        <v>Robes Master of Destruction</v>
+      </c>
+      <c r="J897">
+        <f t="shared" si="15"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="898" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A898" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B898" t="s">
+        <v>3083</v>
+      </c>
+      <c r="C898" t="s">
+        <v>3082</v>
+      </c>
+      <c r="D898">
+        <v>4</v>
+      </c>
+      <c r="E898" t="s">
+        <v>111</v>
+      </c>
+      <c r="F898">
+        <v>6</v>
+      </c>
+      <c r="G898">
+        <v>1500</v>
+      </c>
+      <c r="H898">
+        <v>400</v>
+      </c>
+      <c r="I898" t="str">
+        <f t="shared" si="16"/>
+        <v>Robes Master of Destruction</v>
+      </c>
+      <c r="J898">
+        <f t="shared" si="15"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="899" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A899" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B899" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C899" t="s">
+        <v>3085</v>
+      </c>
+      <c r="D899">
+        <v>4</v>
+      </c>
+      <c r="E899" t="s">
+        <v>111</v>
+      </c>
+      <c r="F899">
+        <v>6</v>
+      </c>
+      <c r="G899">
+        <v>1500</v>
+      </c>
+      <c r="H899">
+        <v>400</v>
+      </c>
+      <c r="I899" t="str">
+        <f t="shared" si="16"/>
+        <v>Robes Master of Conjuration</v>
+      </c>
+      <c r="J899">
+        <f t="shared" si="15"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="900" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A900" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B900" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C900" t="s">
+        <v>3085</v>
+      </c>
+      <c r="D900">
+        <v>4</v>
+      </c>
+      <c r="E900" t="s">
+        <v>111</v>
+      </c>
+      <c r="F900">
+        <v>6</v>
+      </c>
+      <c r="G900">
+        <v>1500</v>
+      </c>
+      <c r="H900">
+        <v>400</v>
+      </c>
+      <c r="I900" t="str">
+        <f t="shared" si="16"/>
+        <v>Robes Master of Conjuration</v>
+      </c>
+      <c r="J900">
+        <f t="shared" si="15"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="901" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A901" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B901" t="s">
+        <v>3087</v>
+      </c>
+      <c r="C901" t="s">
+        <v>3088</v>
+      </c>
+      <c r="D901">
+        <v>4</v>
+      </c>
+      <c r="E901" t="s">
+        <v>111</v>
+      </c>
+      <c r="F901">
+        <v>6</v>
+      </c>
+      <c r="G901">
+        <v>1500</v>
+      </c>
+      <c r="H901">
+        <v>400</v>
+      </c>
+      <c r="I901" t="str">
+        <f t="shared" si="16"/>
+        <v>Robes Master of Alteration</v>
+      </c>
+      <c r="J901">
+        <f t="shared" si="15"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="902" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A902" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B902" t="s">
+        <v>3089</v>
+      </c>
+      <c r="C902" t="s">
+        <v>3088</v>
+      </c>
+      <c r="D902">
+        <v>4</v>
+      </c>
+      <c r="E902" t="s">
+        <v>111</v>
+      </c>
+      <c r="F902">
+        <v>6</v>
+      </c>
+      <c r="G902">
+        <v>1500</v>
+      </c>
+      <c r="H902">
+        <v>400</v>
+      </c>
+      <c r="I902" t="str">
+        <f t="shared" si="16"/>
+        <v>Robes Master of Alteration</v>
+      </c>
+      <c r="J902">
+        <f t="shared" si="15"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="903" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A903" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B903" t="s">
+        <v>3090</v>
+      </c>
+      <c r="C903" t="s">
+        <v>3091</v>
+      </c>
+      <c r="D903">
+        <v>4</v>
+      </c>
+      <c r="E903" t="s">
+        <v>111</v>
+      </c>
+      <c r="F903">
+        <v>6</v>
+      </c>
+      <c r="G903">
+        <v>1500</v>
+      </c>
+      <c r="H903">
+        <v>400</v>
+      </c>
+      <c r="I903" t="str">
+        <f t="shared" si="16"/>
+        <v>Robes Master of Alchemy</v>
+      </c>
+      <c r="J903">
+        <f t="shared" si="15"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="904" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A904" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B904" t="s">
+        <v>3092</v>
+      </c>
+      <c r="C904" t="s">
+        <v>3091</v>
+      </c>
+      <c r="D904">
+        <v>4</v>
+      </c>
+      <c r="E904" t="s">
+        <v>111</v>
+      </c>
+      <c r="F904">
+        <v>6</v>
+      </c>
+      <c r="G904">
+        <v>1500</v>
+      </c>
+      <c r="H904">
+        <v>400</v>
+      </c>
+      <c r="I904" t="str">
+        <f t="shared" si="16"/>
+        <v>Robes Master of Alchemy</v>
+      </c>
+      <c r="J904">
+        <f t="shared" si="15"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="905" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A905" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B905" t="s">
+        <v>3093</v>
+      </c>
+      <c r="C905" t="s">
+        <v>3076</v>
+      </c>
+      <c r="D905">
+        <v>4</v>
+      </c>
+      <c r="E905" t="s">
+        <v>111</v>
+      </c>
+      <c r="F905">
+        <v>6</v>
+      </c>
+      <c r="G905">
+        <v>1500</v>
+      </c>
+      <c r="H905">
+        <v>400</v>
+      </c>
+      <c r="I905" t="str">
+        <f t="shared" si="16"/>
+        <v>Robes Master of Illusion</v>
+      </c>
+      <c r="J905">
+        <f t="shared" si="15"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="906" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A906" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B906" t="s">
+        <v>3094</v>
+      </c>
+      <c r="C906" t="s">
+        <v>3095</v>
+      </c>
+      <c r="D906">
+        <v>4</v>
+      </c>
+      <c r="E906" t="s">
+        <v>111</v>
+      </c>
+      <c r="F906">
+        <v>6</v>
+      </c>
+      <c r="G906">
+        <v>500</v>
+      </c>
+      <c r="H906">
+        <v>200</v>
+      </c>
+      <c r="I906" t="str">
+        <f>"Robes "&amp;LEFT(C906,FIND(" ",C906)-1)&amp;MID(C906,FIND("Robes",C906)+5,30)</f>
+        <v>Robes Novice</v>
+      </c>
+      <c r="J906">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="907" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A907" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B907" t="s">
+        <v>3096</v>
+      </c>
+      <c r="C907" t="s">
+        <v>3095</v>
+      </c>
+      <c r="D907">
+        <v>4</v>
+      </c>
+      <c r="E907" t="s">
+        <v>111</v>
+      </c>
+      <c r="F907">
+        <v>6</v>
+      </c>
+      <c r="G907">
+        <v>500</v>
+      </c>
+      <c r="H907">
+        <v>200</v>
+      </c>
+      <c r="I907" t="str">
+        <f>"Robes "&amp;LEFT(C907,FIND(" ",C907)-1)&amp;MID(C907,FIND("Robes",C907)+5,30)</f>
+        <v>Robes Novice</v>
+      </c>
+      <c r="J907">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="908" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A908" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B908" t="s">
+        <v>3097</v>
+      </c>
+      <c r="C908" t="s">
+        <v>3098</v>
+      </c>
+      <c r="D908">
+        <v>4</v>
+      </c>
+      <c r="E908" t="s">
+        <v>111</v>
+      </c>
+      <c r="F908">
+        <v>6</v>
+      </c>
+      <c r="G908">
+        <v>1200</v>
+      </c>
+      <c r="H908">
+        <v>400</v>
+      </c>
+      <c r="I908" t="str">
+        <f t="shared" ref="I908:I912" si="17">"Robes "&amp;LEFT(C908,FIND(" ",C908)-1)&amp;MID(C908,FIND("Robes",C908)+5,30)</f>
+        <v>Robes Master</v>
+      </c>
+      <c r="J908">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="909" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A909" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B909" t="s">
+        <v>3099</v>
+      </c>
+      <c r="C909" t="s">
+        <v>3098</v>
+      </c>
+      <c r="D909">
+        <v>4</v>
+      </c>
+      <c r="E909" t="s">
+        <v>111</v>
+      </c>
+      <c r="F909">
+        <v>6</v>
+      </c>
+      <c r="G909">
+        <v>1500</v>
+      </c>
+      <c r="H909">
+        <v>400</v>
+      </c>
+      <c r="I909" t="str">
+        <f t="shared" si="17"/>
+        <v>Robes Master</v>
+      </c>
+      <c r="J909">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="910" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A910" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B910" t="s">
+        <v>3100</v>
+      </c>
+      <c r="C910" t="s">
+        <v>3064</v>
+      </c>
+      <c r="D910">
+        <v>4</v>
+      </c>
+      <c r="E910" t="s">
+        <v>111</v>
+      </c>
+      <c r="F910">
+        <v>6</v>
+      </c>
+      <c r="G910">
+        <v>800</v>
+      </c>
+      <c r="H910">
+        <v>200</v>
+      </c>
+      <c r="I910" t="str">
+        <f t="shared" si="17"/>
+        <v>Robes Novice of Alchemy</v>
+      </c>
+      <c r="J910">
+        <f t="shared" si="15"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="911" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A911" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B911" t="s">
+        <v>3101</v>
+      </c>
+      <c r="C911" t="s">
+        <v>3102</v>
+      </c>
+      <c r="D911">
+        <v>4</v>
+      </c>
+      <c r="E911" t="s">
+        <v>111</v>
+      </c>
+      <c r="F911">
+        <v>6</v>
+      </c>
+      <c r="G911">
+        <v>5000</v>
+      </c>
+      <c r="H911">
+        <v>800</v>
+      </c>
+      <c r="I911" t="str">
+        <f t="shared" si="17"/>
+        <v>Robes Arch-Mage's</v>
+      </c>
+      <c r="J911">
+        <f t="shared" si="15"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="912" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A912" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B912" t="s">
+        <v>3103</v>
+      </c>
+      <c r="C912" t="s">
+        <v>3102</v>
+      </c>
+      <c r="D912">
+        <v>4</v>
+      </c>
+      <c r="E912" t="s">
+        <v>111</v>
+      </c>
+      <c r="F912">
+        <v>6</v>
+      </c>
+      <c r="G912">
+        <v>5000</v>
+      </c>
+      <c r="H912">
+        <v>800</v>
+      </c>
+      <c r="I912" t="str">
+        <f t="shared" si="17"/>
+        <v>Robes Arch-Mage's</v>
+      </c>
+      <c r="J912">
+        <f t="shared" si="15"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="913" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A913" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B913" t="s">
+        <v>3104</v>
+      </c>
+      <c r="C913" t="s">
+        <v>3105</v>
+      </c>
+      <c r="D913">
+        <v>9</v>
+      </c>
+      <c r="E913" t="s">
+        <v>171</v>
+      </c>
+      <c r="F913">
+        <v>0.2</v>
+      </c>
+      <c r="G913">
+        <v>90</v>
+      </c>
+      <c r="H913">
+        <v>50</v>
+      </c>
+      <c r="I913" t="s">
+        <v>3105</v>
       </c>
     </row>
   </sheetData>
@@ -57844,11 +59473,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1448"/>
+  <dimension ref="A1:D1489"/>
   <sheetViews>
-    <sheetView topLeftCell="A1421" workbookViewId="0">
-      <selection activeCell="F1439" sqref="F1439"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -79017,7 +80644,7 @@
         <v>2980</v>
       </c>
       <c r="D1411" t="str">
-        <f t="shared" ref="D1411:D1448" si="22">IF(B1411&lt;&gt;C1411,"{ID="&amp;""""&amp;A1411&amp;""""&amp;", name="&amp;""""&amp;C1411&amp;""""&amp;"},","")</f>
+        <f t="shared" ref="D1411:D1474" si="22">IF(B1411&lt;&gt;C1411,"{ID="&amp;""""&amp;A1411&amp;""""&amp;", name="&amp;""""&amp;C1411&amp;""""&amp;"},","")</f>
         <v>{ID="1embc_c_sk_05", name="Skirt Common Girl"},</v>
       </c>
     </row>
@@ -79574,6 +81201,621 @@
       <c r="D1448" t="str">
         <f t="shared" si="22"/>
         <v>{ID="ABtm_c_WhiteJinxRing", name="Ring Jinx White"},</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1449" t="s">
+        <v>3045</v>
+      </c>
+      <c r="B1449" t="s">
+        <v>3046</v>
+      </c>
+      <c r="C1449" t="s">
+        <v>3106</v>
+      </c>
+      <c r="D1449" t="str">
+        <f t="shared" si="22"/>
+        <v>{ID="mg_c_robe_alt", name="Robes Novice of Alteration"},</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1450" t="s">
+        <v>3047</v>
+      </c>
+      <c r="B1450" t="s">
+        <v>3046</v>
+      </c>
+      <c r="C1450" t="s">
+        <v>3106</v>
+      </c>
+      <c r="D1450" t="str">
+        <f t="shared" si="22"/>
+        <v>{ID="mg_c_robe_alt_hood", name="Robes Novice of Alteration"},</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1451" t="s">
+        <v>3048</v>
+      </c>
+      <c r="B1451" t="s">
+        <v>3049</v>
+      </c>
+      <c r="C1451" t="s">
+        <v>3107</v>
+      </c>
+      <c r="D1451" t="str">
+        <f t="shared" si="22"/>
+        <v>{ID="mg_c_robe_ill_hood", name="Robes Novice of Illusion"},</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1452" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B1452" t="s">
+        <v>3049</v>
+      </c>
+      <c r="C1452" t="s">
+        <v>3107</v>
+      </c>
+      <c r="D1452" t="str">
+        <f t="shared" si="22"/>
+        <v>{ID="mg_c_robe_ill", name="Robes Novice of Illusion"},</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1453" t="s">
+        <v>3051</v>
+      </c>
+      <c r="B1453" t="s">
+        <v>3052</v>
+      </c>
+      <c r="C1453" t="s">
+        <v>3108</v>
+      </c>
+      <c r="D1453" t="str">
+        <f t="shared" si="22"/>
+        <v>{ID="mg_c_robe_res", name="Robes Novice of Restoration"},</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1454" t="s">
+        <v>3053</v>
+      </c>
+      <c r="B1454" t="s">
+        <v>3052</v>
+      </c>
+      <c r="C1454" t="s">
+        <v>3108</v>
+      </c>
+      <c r="D1454" t="str">
+        <f t="shared" si="22"/>
+        <v>{ID="mg_c_robe_res_hood", name="Robes Novice of Restoration"},</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1455" t="s">
+        <v>3054</v>
+      </c>
+      <c r="B1455" t="s">
+        <v>3055</v>
+      </c>
+      <c r="C1455" t="s">
+        <v>3109</v>
+      </c>
+      <c r="D1455" t="str">
+        <f t="shared" si="22"/>
+        <v>{ID="mg_c_robe_con_hood", name="Robes Novice of Conjuration"},</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1456" t="s">
+        <v>3056</v>
+      </c>
+      <c r="B1456" t="s">
+        <v>3055</v>
+      </c>
+      <c r="C1456" t="s">
+        <v>3109</v>
+      </c>
+      <c r="D1456" t="str">
+        <f t="shared" si="22"/>
+        <v>{ID="mg_c_robe_con", name="Robes Novice of Conjuration"},</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1457" t="s">
+        <v>3057</v>
+      </c>
+      <c r="B1457" t="s">
+        <v>3058</v>
+      </c>
+      <c r="C1457" t="s">
+        <v>3110</v>
+      </c>
+      <c r="D1457" t="str">
+        <f t="shared" si="22"/>
+        <v>{ID="mg_c_robe_enc_hood", name="Robes Novice of Enchanting"},</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1458" t="s">
+        <v>3059</v>
+      </c>
+      <c r="B1458" t="s">
+        <v>3058</v>
+      </c>
+      <c r="C1458" t="s">
+        <v>3110</v>
+      </c>
+      <c r="D1458" t="str">
+        <f t="shared" si="22"/>
+        <v>{ID="mg_c_robe_enc", name="Robes Novice of Enchanting"},</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1459" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1459" t="s">
+        <v>3061</v>
+      </c>
+      <c r="C1459" t="s">
+        <v>3111</v>
+      </c>
+      <c r="D1459" t="str">
+        <f t="shared" si="22"/>
+        <v>{ID="mg_c_robe_des_hood", name="Robes Novice of Destruction"},</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1460" t="s">
+        <v>3062</v>
+      </c>
+      <c r="B1460" t="s">
+        <v>3061</v>
+      </c>
+      <c r="C1460" t="s">
+        <v>3111</v>
+      </c>
+      <c r="D1460" t="str">
+        <f t="shared" si="22"/>
+        <v>{ID="mg_c_robe_des", name="Robes Novice of Destruction"},</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1461" t="s">
+        <v>3063</v>
+      </c>
+      <c r="B1461" t="s">
+        <v>3064</v>
+      </c>
+      <c r="C1461" t="s">
+        <v>3112</v>
+      </c>
+      <c r="D1461" t="str">
+        <f t="shared" si="22"/>
+        <v>{ID="mg_c_robe_alc_hood", name="Robes Novice of Alchemy"},</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1462" t="s">
+        <v>3065</v>
+      </c>
+      <c r="B1462" t="s">
+        <v>3064</v>
+      </c>
+      <c r="C1462" t="s">
+        <v>3112</v>
+      </c>
+      <c r="D1462" t="str">
+        <f t="shared" si="22"/>
+        <v>{ID="mg_c_robe_alc", name="Robes Novice of Alchemy"},</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1463" t="s">
+        <v>3066</v>
+      </c>
+      <c r="B1463" t="s">
+        <v>3067</v>
+      </c>
+      <c r="C1463" t="s">
+        <v>3113</v>
+      </c>
+      <c r="D1463" t="str">
+        <f t="shared" si="22"/>
+        <v>{ID="mg_c_robe_mys_hood", name="Robes Novice of Mysticism"},</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1464" t="s">
+        <v>3068</v>
+      </c>
+      <c r="B1464" t="s">
+        <v>3067</v>
+      </c>
+      <c r="C1464" t="s">
+        <v>3113</v>
+      </c>
+      <c r="D1464" t="str">
+        <f t="shared" si="22"/>
+        <v>{ID="mg_c_robe_mys", name="Robes Novice of Mysticism"},</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1465" t="s">
+        <v>3069</v>
+      </c>
+      <c r="B1465" t="s">
+        <v>3070</v>
+      </c>
+      <c r="C1465" t="s">
+        <v>3114</v>
+      </c>
+      <c r="D1465" t="str">
+        <f t="shared" si="22"/>
+        <v>{ID="mg_c_robe_resmas_hood", name="Robes Master of Restoration"},</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1466" t="s">
+        <v>3071</v>
+      </c>
+      <c r="B1466" t="s">
+        <v>3070</v>
+      </c>
+      <c r="C1466" t="s">
+        <v>3114</v>
+      </c>
+      <c r="D1466" t="str">
+        <f t="shared" si="22"/>
+        <v>{ID="mg_c_robe_resmas", name="Robes Master of Restoration"},</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1467" t="s">
+        <v>3072</v>
+      </c>
+      <c r="B1467" t="s">
+        <v>3073</v>
+      </c>
+      <c r="C1467" t="s">
+        <v>3115</v>
+      </c>
+      <c r="D1467" t="str">
+        <f t="shared" si="22"/>
+        <v>{ID="mg_c_robe_mysmas_hood", name="Robes Master of Mysticism"},</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1468" t="s">
+        <v>3074</v>
+      </c>
+      <c r="B1468" t="s">
+        <v>3073</v>
+      </c>
+      <c r="C1468" t="s">
+        <v>3115</v>
+      </c>
+      <c r="D1468" t="str">
+        <f t="shared" si="22"/>
+        <v>{ID="mg_c_robe_mysmas", name="Robes Master of Mysticism"},</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1469" t="s">
+        <v>3075</v>
+      </c>
+      <c r="B1469" t="s">
+        <v>3076</v>
+      </c>
+      <c r="C1469" t="s">
+        <v>3116</v>
+      </c>
+      <c r="D1469" t="str">
+        <f t="shared" si="22"/>
+        <v>{ID="mg_c_robe_illmas_hood", name="Robes Master of Illusion"},</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1470" t="s">
+        <v>3077</v>
+      </c>
+      <c r="B1470" t="s">
+        <v>3076</v>
+      </c>
+      <c r="C1470" t="s">
+        <v>3116</v>
+      </c>
+      <c r="D1470" t="str">
+        <f t="shared" si="22"/>
+        <v>{ID="mg_c_robe_illmas", name="Robes Master of Illusion"},</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1471" t="s">
+        <v>3078</v>
+      </c>
+      <c r="B1471" t="s">
+        <v>3079</v>
+      </c>
+      <c r="C1471" t="s">
+        <v>3117</v>
+      </c>
+      <c r="D1471" t="str">
+        <f t="shared" si="22"/>
+        <v>{ID="mg_c_robe_encmas_hood", name="Robes Master of Enchanting"},</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1472" t="s">
+        <v>3080</v>
+      </c>
+      <c r="B1472" t="s">
+        <v>3079</v>
+      </c>
+      <c r="C1472" t="s">
+        <v>3117</v>
+      </c>
+      <c r="D1472" t="str">
+        <f t="shared" si="22"/>
+        <v>{ID="mg_c_robe_encmas", name="Robes Master of Enchanting"},</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1473" t="s">
+        <v>3081</v>
+      </c>
+      <c r="B1473" t="s">
+        <v>3082</v>
+      </c>
+      <c r="C1473" t="s">
+        <v>3118</v>
+      </c>
+      <c r="D1473" t="str">
+        <f t="shared" si="22"/>
+        <v>{ID="mg_c_robe_desmas_hood", name="Robes Master of Destruction"},</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1474" t="s">
+        <v>3083</v>
+      </c>
+      <c r="B1474" t="s">
+        <v>3082</v>
+      </c>
+      <c r="C1474" t="s">
+        <v>3118</v>
+      </c>
+      <c r="D1474" t="str">
+        <f t="shared" si="22"/>
+        <v>{ID="mg_c_robe_desmas", name="Robes Master of Destruction"},</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1475" t="s">
+        <v>3084</v>
+      </c>
+      <c r="B1475" t="s">
+        <v>3085</v>
+      </c>
+      <c r="C1475" t="s">
+        <v>3119</v>
+      </c>
+      <c r="D1475" t="str">
+        <f t="shared" ref="D1475:D1489" si="23">IF(B1475&lt;&gt;C1475,"{ID="&amp;""""&amp;A1475&amp;""""&amp;", name="&amp;""""&amp;C1475&amp;""""&amp;"},","")</f>
+        <v>{ID="mg_c_robe_conmas_hood", name="Robes Master of Conjuration"},</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1476" t="s">
+        <v>3086</v>
+      </c>
+      <c r="B1476" t="s">
+        <v>3085</v>
+      </c>
+      <c r="C1476" t="s">
+        <v>3119</v>
+      </c>
+      <c r="D1476" t="str">
+        <f t="shared" si="23"/>
+        <v>{ID="mg_c_robe_conmas", name="Robes Master of Conjuration"},</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1477" t="s">
+        <v>3087</v>
+      </c>
+      <c r="B1477" t="s">
+        <v>3088</v>
+      </c>
+      <c r="C1477" t="s">
+        <v>3120</v>
+      </c>
+      <c r="D1477" t="str">
+        <f t="shared" si="23"/>
+        <v>{ID="mg_c_robe_altmas_hood", name="Robes Master of Alteration"},</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1478" t="s">
+        <v>3089</v>
+      </c>
+      <c r="B1478" t="s">
+        <v>3088</v>
+      </c>
+      <c r="C1478" t="s">
+        <v>3120</v>
+      </c>
+      <c r="D1478" t="str">
+        <f t="shared" si="23"/>
+        <v>{ID="mg_c_robe_altmas", name="Robes Master of Alteration"},</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1479" t="s">
+        <v>3090</v>
+      </c>
+      <c r="B1479" t="s">
+        <v>3091</v>
+      </c>
+      <c r="C1479" t="s">
+        <v>3121</v>
+      </c>
+      <c r="D1479" t="str">
+        <f t="shared" si="23"/>
+        <v>{ID="mg_c_robe_alcmas_hood", name="Robes Master of Alchemy"},</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1480" t="s">
+        <v>3092</v>
+      </c>
+      <c r="B1480" t="s">
+        <v>3091</v>
+      </c>
+      <c r="C1480" t="s">
+        <v>3121</v>
+      </c>
+      <c r="D1480" t="str">
+        <f t="shared" si="23"/>
+        <v>{ID="mg_c_robe_alcmas", name="Robes Master of Alchemy"},</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1481" t="s">
+        <v>3093</v>
+      </c>
+      <c r="B1481" t="s">
+        <v>3076</v>
+      </c>
+      <c r="C1481" t="s">
+        <v>3116</v>
+      </c>
+      <c r="D1481" t="str">
+        <f t="shared" si="23"/>
+        <v>{ID="mg_c_robe_illmas_uni", name="Robes Master of Illusion"},</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1482" t="s">
+        <v>3094</v>
+      </c>
+      <c r="B1482" t="s">
+        <v>3095</v>
+      </c>
+      <c r="C1482" t="s">
+        <v>3122</v>
+      </c>
+      <c r="D1482" t="str">
+        <f t="shared" si="23"/>
+        <v>{ID="mg_c_robe_nov", name="Robes Novice"},</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1483" t="s">
+        <v>3096</v>
+      </c>
+      <c r="B1483" t="s">
+        <v>3095</v>
+      </c>
+      <c r="C1483" t="s">
+        <v>3122</v>
+      </c>
+      <c r="D1483" t="str">
+        <f t="shared" si="23"/>
+        <v>{ID="mg_c_robe_nov_hood", name="Robes Novice"},</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1484" t="s">
+        <v>3097</v>
+      </c>
+      <c r="B1484" t="s">
+        <v>3098</v>
+      </c>
+      <c r="C1484" t="s">
+        <v>3123</v>
+      </c>
+      <c r="D1484" t="str">
+        <f t="shared" si="23"/>
+        <v>{ID="mg_c_robe_mas_hood", name="Robes Master"},</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1485" t="s">
+        <v>3099</v>
+      </c>
+      <c r="B1485" t="s">
+        <v>3098</v>
+      </c>
+      <c r="C1485" t="s">
+        <v>3123</v>
+      </c>
+      <c r="D1485" t="str">
+        <f t="shared" si="23"/>
+        <v>{ID="mg_c_robe_mas", name="Robes Master"},</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1486" t="s">
+        <v>3100</v>
+      </c>
+      <c r="B1486" t="s">
+        <v>3064</v>
+      </c>
+      <c r="C1486" t="s">
+        <v>3112</v>
+      </c>
+      <c r="D1486" t="str">
+        <f t="shared" si="23"/>
+        <v>{ID="mg_c_robe_dummy", name="Robes Novice of Alchemy"},</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1487" t="s">
+        <v>3101</v>
+      </c>
+      <c r="B1487" t="s">
+        <v>3102</v>
+      </c>
+      <c r="C1487" t="s">
+        <v>3124</v>
+      </c>
+      <c r="D1487" t="str">
+        <f t="shared" si="23"/>
+        <v>{ID="mg_c_robe_arch", name="Robes Arch-Mage's"},</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1488" t="s">
+        <v>3103</v>
+      </c>
+      <c r="B1488" t="s">
+        <v>3102</v>
+      </c>
+      <c r="C1488" t="s">
+        <v>3124</v>
+      </c>
+      <c r="D1488" t="str">
+        <f t="shared" si="23"/>
+        <v>{ID="mg_c_robe_arch_hood", name="Robes Arch-Mage's"},</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1489" t="s">
+        <v>3104</v>
+      </c>
+      <c r="B1489" t="s">
+        <v>3105</v>
+      </c>
+      <c r="C1489" t="s">
+        <v>3105</v>
+      </c>
+      <c r="D1489" t="str">
+        <f t="shared" si="23"/>
+        <v/>
       </c>
     </row>
   </sheetData>
